--- a/output/vaccine-serial-number-1.xlsx
+++ b/output/vaccine-serial-number-1.xlsx
@@ -140,7 +140,7 @@
     <t>Vaccine vial serial number</t>
   </si>
   <si>
-    <t>Serial number for a vial of vaccine.</t>
+    <t>Serial number for the vial of vaccine used in an administration.</t>
   </si>
   <si>
     <t>*</t>
